--- a/data/input/absenteeism_data_19.xlsx
+++ b/data/input/absenteeism_data_19.xlsx
@@ -476,74 +476,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>31810</v>
+        <v>6685</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Amanda Moraes</t>
+          <t>João Miguel Cunha</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45089</v>
+        <v>45087</v>
       </c>
       <c r="G2" t="n">
-        <v>9982.139999999999</v>
+        <v>9404.02</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>41407</v>
+        <v>78938</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Matheus da Costa</t>
+          <t>Marcela Araújo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45087</v>
+        <v>45101</v>
       </c>
       <c r="G3" t="n">
-        <v>7947.9</v>
+        <v>4020.56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>47687</v>
+        <v>88341</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ana Vitória Souza</t>
+          <t>Milena Nascimento</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -555,19 +555,19 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45081</v>
+        <v>45096</v>
       </c>
       <c r="G4" t="n">
-        <v>3070.24</v>
+        <v>8289.690000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>94801</v>
+        <v>41560</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ana Vitória Farias</t>
+          <t>Gabriel Monteiro</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,31 +577,31 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45105</v>
+        <v>45092</v>
       </c>
       <c r="G5" t="n">
-        <v>7250.65</v>
+        <v>12144.36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>89624</v>
+        <v>27830</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nicolas Fogaça</t>
+          <t>Antônio Nogueira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -613,24 +613,24 @@
         <v>2</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45081</v>
+        <v>45085</v>
       </c>
       <c r="G6" t="n">
-        <v>2969.94</v>
+        <v>10531.79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>92406</v>
+        <v>16139</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bianca Caldeira</t>
+          <t>João Lucas Rocha</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,56 +639,56 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45105</v>
+        <v>45100</v>
       </c>
       <c r="G7" t="n">
-        <v>12486.16</v>
+        <v>8313.48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>24055</v>
+        <v>66763</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lívia Costela</t>
+          <t>Eduarda Cunha</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45106</v>
+        <v>45102</v>
       </c>
       <c r="G8" t="n">
-        <v>9525.790000000001</v>
+        <v>7790.04</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>22158</v>
+        <v>12149</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Carlos Eduardo da Mota</t>
+          <t>Leandro Mendes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,71 +697,71 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45084</v>
+        <v>45094</v>
       </c>
       <c r="G9" t="n">
-        <v>8287.58</v>
+        <v>8308.049999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>35994</v>
+        <v>18768</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sr. Otávio Cunha</t>
+          <t>Natália Mendes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45094</v>
+        <v>45106</v>
       </c>
       <c r="G10" t="n">
-        <v>5976.63</v>
+        <v>5411.03</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>45487</v>
+        <v>35657</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Vitor Hugo Costa</t>
+          <t>Luna Araújo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45082</v>
+        <v>45091</v>
       </c>
       <c r="G11" t="n">
-        <v>4787.74</v>
+        <v>8741.1</v>
       </c>
     </row>
   </sheetData>
